--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value778.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value778.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.022560788760888</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>3.180641295612211</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>3.568969346525455</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.178225525531774</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.188195574471945</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
